--- a/요구사항/클라 요구사항.xlsx
+++ b/요구사항/클라 요구사항.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25128"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20386"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\school_class\4학년 1학기 소프트웨어융합종합설계1\flask\요구사항\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pat04\school_class\4학년 1학기 소프트웨어융합종합설계1\growingTypeWebRpgGame\요구사항\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C6171C40-1A68-4EC7-A8AE-0E0036F25374}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A4885BF3-5AC3-44CE-A09C-D2BCEC80695F}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-38325" yWindow="1620" windowWidth="17715" windowHeight="16905" xr2:uid="{C9354672-ED8D-43F4-BDA2-80AF15C1C454}"/>
+    <workbookView xWindow="-38328" yWindow="1620" windowWidth="17712" windowHeight="16908" xr2:uid="{C9354672-ED8D-43F4-BDA2-80AF15C1C454}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -19,14 +19,6 @@
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -598,16 +590,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{75193F5E-4DCE-451F-8964-8ECAC0A4F73C}">
   <dimension ref="A1:C29"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B24" sqref="B24"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="2" max="2" width="37.75" customWidth="1"/>
+    <col min="2" max="2" width="37.69921875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -618,7 +610,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -629,7 +621,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A3" t="s">
         <v>3</v>
       </c>
@@ -640,7 +632,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A4" t="s">
         <v>2</v>
       </c>
@@ -651,7 +643,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A5" t="s">
         <v>2</v>
       </c>
@@ -662,7 +654,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A6" t="s">
         <v>14</v>
       </c>
@@ -670,10 +662,10 @@
         <v>15</v>
       </c>
       <c r="C6" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A7" t="s">
         <v>6</v>
       </c>
@@ -681,10 +673,10 @@
         <v>5</v>
       </c>
       <c r="C7" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A8" t="s">
         <v>12</v>
       </c>
@@ -695,7 +687,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A9" t="s">
         <v>12</v>
       </c>
@@ -706,7 +698,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A10" t="s">
         <v>17</v>
       </c>
@@ -717,7 +709,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A11" t="s">
         <v>9</v>
       </c>
@@ -728,7 +720,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A12" t="s">
         <v>18</v>
       </c>
@@ -739,7 +731,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A13" t="s">
         <v>9</v>
       </c>
@@ -750,7 +742,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A14" t="s">
         <v>18</v>
       </c>
@@ -761,7 +753,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A15" t="s">
         <v>25</v>
       </c>
@@ -772,7 +764,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A16" t="s">
         <v>18</v>
       </c>
@@ -783,7 +775,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A17" t="s">
         <v>18</v>
       </c>
@@ -794,7 +786,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A18" t="s">
         <v>18</v>
       </c>
@@ -805,7 +797,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A19" t="s">
         <v>39</v>
       </c>
@@ -816,7 +808,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A20" t="s">
         <v>39</v>
       </c>
@@ -827,7 +819,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A21" t="s">
         <v>39</v>
       </c>
@@ -838,7 +830,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A22" t="s">
         <v>3</v>
       </c>
@@ -849,7 +841,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A23" t="s">
         <v>25</v>
       </c>
@@ -860,7 +852,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A24" t="s">
         <v>25</v>
       </c>
@@ -871,7 +863,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A25" t="s">
         <v>25</v>
       </c>
@@ -882,7 +874,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A26" t="s">
         <v>25</v>
       </c>
@@ -893,7 +885,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A27" t="s">
         <v>36</v>
       </c>
@@ -904,7 +896,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A28" t="s">
         <v>25</v>
       </c>
@@ -915,7 +907,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A29" t="s">
         <v>44</v>
       </c>
@@ -929,5 +921,6 @@
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="360" verticalDpi="360" r:id="rId1"/>
 </worksheet>
 </file>
--- a/요구사항/클라 요구사항.xlsx
+++ b/요구사항/클라 요구사항.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pat04\school_class\4학년 1학기 소프트웨어융합종합설계1\growingTypeWebRpgGame\요구사항\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A4885BF3-5AC3-44CE-A09C-D2BCEC80695F}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E4F10B1B-48C5-4080-B617-8C42A230A87E}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-38328" yWindow="1620" windowWidth="17712" windowHeight="16908" xr2:uid="{C9354672-ED8D-43F4-BDA2-80AF15C1C454}"/>
   </bookViews>
@@ -591,7 +591,7 @@
   <dimension ref="A1:C29"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+      <selection activeCell="C26" sqref="C26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
@@ -849,7 +849,7 @@
         <v>21</v>
       </c>
       <c r="C23" t="s">
-        <v>45</v>
+        <v>34</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.4">
@@ -860,7 +860,7 @@
         <v>46</v>
       </c>
       <c r="C24" t="s">
-        <v>45</v>
+        <v>34</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.4">
@@ -882,7 +882,7 @@
         <v>23</v>
       </c>
       <c r="C26" t="s">
-        <v>45</v>
+        <v>34</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.4">
